--- a/docs/pines usados.xlsx
+++ b/docs/pines usados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBRIS\Desktop\Git\tdse_tp_final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BEAC59-DF6C-422C-9AA3-4EC45C212B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD590814-89B0-4BB0-A4D7-677F229D2541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="870" windowWidth="10155" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,12 +123,6 @@
     <t>A0</t>
   </si>
   <si>
-    <t>Motor ingreso</t>
-  </si>
-  <si>
-    <t>Motor Egreso</t>
-  </si>
-  <si>
     <t>Boton ingreso</t>
   </si>
   <si>
@@ -211,6 +205,12 @@
   </si>
   <si>
     <t>I5</t>
+  </si>
+  <si>
+    <t>Motor abrir</t>
+  </si>
+  <si>
+    <t>Motor cerrar</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,112 +674,112 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
